--- a/Mediumish_template.xlsx
+++ b/Mediumish_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\picsen\git\blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\picsen\git\picsen.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -464,14 +464,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.296875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
